--- a/raw_data/local_continuum/LA.xlsx
+++ b/raw_data/local_continuum/LA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\data2\Continuum\msa_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Todd Fojo\CloudStation\Projects\Ending HIV\Ending_HIV\raw_data\local_continuum\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10116" windowHeight="5136" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10116" windowHeight="5136"/>
   </bookViews>
   <sheets>
     <sheet name="Stratified_Data" sheetId="1" r:id="rId1"/>
@@ -473,11 +473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,8 +721,17 @@
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B3" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.69</v>
+      </c>
       <c r="D3" s="5">
         <v>52004</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.75</v>
       </c>
       <c r="F3" s="5">
         <v>1660</v>
@@ -734,11 +743,69 @@
         <f>57717/G3</f>
         <v>64850.561797752809</v>
       </c>
+      <c r="I3" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.69</v>
+      </c>
       <c r="K3" s="5">
         <v>48974</v>
       </c>
+      <c r="L3" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1949</v>
+      </c>
+      <c r="N3" s="5">
+        <f>0.608</f>
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="O3" s="5">
+        <f>34150/P3</f>
+        <v>0.699436763952893</v>
+      </c>
       <c r="P3" s="5">
         <v>48825</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>0.624</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1952</v>
+      </c>
+      <c r="S3" s="5">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="T3" s="5">
+        <f>33453/U3</f>
+        <v>0.70074781625086402</v>
+      </c>
+      <c r="U3" s="5">
+        <v>47739</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1987</v>
+      </c>
+      <c r="X3" s="5">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="Y3" s="5">
+        <f>32093/Z3</f>
+        <v>0.69986479413817171</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>45856</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1844</v>
       </c>
       <c r="AC3" s="5">
         <v>0.54800000000000004</v>
@@ -2700,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
